--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,120 +40,129 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>sorry</t>
+    <t>insane</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>negative</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>stupid</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>evil</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>weird</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>worse</t>
+    <t>seriously</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
     <t>frightening</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>destroying</t>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>shocked</t>
   </si>
   <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>least</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
+    <t>single</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
@@ -166,172 +175,199 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>worth</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
-    <t>first</t>
+    <t>honestly</t>
   </si>
   <si>
     <t>top</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>wow</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>live</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
-    <t>many</t>
+    <t>right</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>digital</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>google</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>real</t>
   </si>
   <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>change</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>opening</t>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>want</t>
   </si>
   <si>
-    <t>world</t>
+    <t>media</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>watching</t>
   </si>
   <si>
     <t>twitter</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>media</t>
+    <t>watch</t>
   </si>
   <si>
     <t>dilemma</t>
   </si>
   <si>
+    <t>see</t>
+  </si>
+  <si>
     <t>…</t>
   </si>
   <si>
-    <t>watch</t>
+    <t>one</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
+    <t>amp</t>
+  </si>
+  <si>
     <t>’</t>
   </si>
   <si>
-    <t>amp</t>
+    <t>know</t>
   </si>
   <si>
     <t>watched</t>
@@ -695,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -703,10 +739,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -767,10 +803,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -785,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -817,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -835,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -864,13 +900,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -882,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -906,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -914,13 +950,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9375</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -932,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -956,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -964,13 +1000,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -982,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1006,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1014,13 +1050,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9333333333333333</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1032,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1056,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1064,13 +1100,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.875</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1082,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.7719298245614035</v>
+        <v>0.8</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1106,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1114,13 +1150,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9090909090909091</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1132,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.7692307692307693</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1156,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1164,13 +1200,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8947368421052632</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1185,16 +1221,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.7066666666666667</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L11">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1206,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1214,13 +1250,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8888888888888888</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1232,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.6551724137931034</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1256,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1264,13 +1300,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.875</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1282,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1306,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1314,13 +1350,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8461538461538461</v>
+        <v>0.8125</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1332,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K14">
         <v>0.631578947368421</v>
@@ -1364,13 +1400,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8235294117647058</v>
+        <v>0.8</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1382,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.6111111111111112</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1406,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1414,13 +1450,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8125</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1432,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.5833333333333334</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1456,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1464,13 +1500,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1485,16 +1521,16 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.5454545454545454</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1506,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1514,37 +1550,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L18">
         <v>8</v>
       </c>
-      <c r="D18">
+      <c r="M18">
         <v>8</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="L18">
-        <v>7</v>
-      </c>
-      <c r="M18">
-        <v>7</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1567,10 +1603,10 @@
         <v>0.75</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1582,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.5185185185185185</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1606,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1614,13 +1650,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6956521739130435</v>
+        <v>0.725</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1632,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.5</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1656,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1664,13 +1700,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6923076923076923</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1682,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K21">
         <v>0.5</v>
       </c>
       <c r="L21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1706,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1714,13 +1750,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C22">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1732,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.4736842105263158</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1756,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1764,13 +1800,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1782,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.4375</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1806,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1814,13 +1850,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1832,19 +1868,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.391304347826087</v>
+        <v>0.4375</v>
       </c>
       <c r="L24">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1856,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1864,13 +1900,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6153846153846154</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1885,16 +1921,16 @@
         <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.3728813559322034</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1906,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1914,13 +1950,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6153846153846154</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1932,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.3333333333333333</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1956,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1964,13 +2000,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1982,19 +2018,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>0.3076923076923077</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L27">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2006,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2014,13 +2050,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2032,19 +2068,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.3060109289617486</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L28">
-        <v>336</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>336</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2056,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>762</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2064,13 +2100,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2085,16 +2121,16 @@
         <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K29">
-        <v>0.2926829268292683</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L29">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M29">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2106,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2114,13 +2150,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5357142857142857</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2132,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.2857142857142857</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2156,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2164,13 +2200,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5106382978723404</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2182,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>0.2622950819672131</v>
+        <v>0.3032786885245902</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>333</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>333</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2206,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>765</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2214,13 +2250,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2232,19 +2268,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K32">
-        <v>0.2394366197183098</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2256,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2264,13 +2300,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2282,19 +2318,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.2307692307692308</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2306,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2314,13 +2350,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4761904761904762</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2332,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="L34">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M34">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2356,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2364,37 +2400,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4705882352941176</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>8</v>
       </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>9</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>0.2173913043478261</v>
+        <v>0.24</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2406,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2414,13 +2450,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4285714285714285</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2432,19 +2468,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K36">
-        <v>0.2153846153846154</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2456,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2464,13 +2500,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2482,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K37">
-        <v>0.2068965517241379</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2506,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2514,13 +2550,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4102564102564102</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2532,19 +2568,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K38">
-        <v>0.2054794520547945</v>
+        <v>0.2315789473684211</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2556,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2564,37 +2600,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3636363636363636</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>8</v>
       </c>
-      <c r="D39">
+      <c r="J39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39">
+        <v>0.2285714285714286</v>
+      </c>
+      <c r="L39">
         <v>8</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>14</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K39">
-        <v>0.2037037037037037</v>
-      </c>
-      <c r="L39">
-        <v>11</v>
-      </c>
       <c r="M39">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2606,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2614,37 +2650,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>8</v>
       </c>
-      <c r="D40">
-        <v>8</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>20</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K40">
-        <v>0.2</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2656,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2664,13 +2700,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2435897435897436</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2682,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K41">
-        <v>0.1894736842105263</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2706,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2714,37 +2750,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.0711864406779661</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D42">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K42">
-        <v>0.1882352941176471</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2756,21 +2792,45 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>15</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K43">
-        <v>0.18</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="L43">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2782,21 +2842,45 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.217948717948718</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>17</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>61</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K44">
-        <v>0.1777777777777778</v>
+        <v>0.2</v>
       </c>
       <c r="L44">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2808,21 +2892,45 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.05802047781569966</v>
+      </c>
+      <c r="C45">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>23</v>
+      </c>
+      <c r="E45">
+        <v>0.26</v>
+      </c>
+      <c r="F45">
+        <v>0.74</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>276</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>0.175</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L45">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M45">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2834,21 +2942,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K46">
-        <v>0.1707317073170732</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2860,21 +2968,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>0.1447368421052632</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="L47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2886,21 +2994,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K48">
-        <v>0.1194029850746269</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="L48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2912,21 +3020,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K49">
-        <v>0.1167883211678832</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2938,21 +3046,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>121</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K50">
-        <v>0.1148148148148148</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L50">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="M50">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2964,21 +3072,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>478</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>0.0945945945945946</v>
+        <v>0.12</v>
       </c>
       <c r="L51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2990,21 +3098,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>0.0812720848056537</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3016,21 +3124,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>260</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K53">
-        <v>0.07331378299120235</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="L53">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3042,47 +3150,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>316</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K54">
-        <v>0.07088989441930618</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L54">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="M54">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="N54">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>616</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K55">
-        <v>0.06984126984126984</v>
+        <v>0.1039156626506024</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3094,21 +3202,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>293</v>
+        <v>595</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K56">
-        <v>0.06912442396313365</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="L56">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="M56">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3120,21 +3228,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>1616</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K57">
-        <v>0.06655844155844155</v>
+        <v>0.09540636042402827</v>
       </c>
       <c r="L57">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M57">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3146,21 +3254,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>575</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K58">
-        <v>0.05555555555555555</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="L58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3172,21 +3280,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K59">
-        <v>0.04737516005121639</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L59">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M59">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3198,59 +3306,319 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>744</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K60">
-        <v>0.046875</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="L60">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M60">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N60">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K61">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L61">
+        <v>44</v>
+      </c>
+      <c r="M61">
+        <v>44</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K62">
+        <v>0.06984126984126984</v>
+      </c>
+      <c r="L62">
+        <v>22</v>
+      </c>
+      <c r="M62">
+        <v>22</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K63">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="L63">
+        <v>6</v>
+      </c>
+      <c r="M63">
+        <v>6</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K64">
+        <v>0.05767012687427912</v>
+      </c>
+      <c r="L64">
+        <v>100</v>
+      </c>
+      <c r="M64">
+        <v>102</v>
+      </c>
+      <c r="N64">
+        <v>0.98</v>
+      </c>
+      <c r="O64">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K65">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L65">
+        <v>6</v>
+      </c>
+      <c r="M65">
+        <v>7</v>
+      </c>
+      <c r="N65">
+        <v>0.86</v>
+      </c>
+      <c r="O65">
+        <v>0.14</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K66">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L66">
+        <v>6</v>
+      </c>
+      <c r="M66">
+        <v>6</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K67">
+        <v>0.05426356589147287</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>7</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K68">
+        <v>0.05249679897567221</v>
+      </c>
+      <c r="L68">
+        <v>41</v>
+      </c>
+      <c r="M68">
+        <v>41</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K69">
+        <v>0.05217391304347826</v>
+      </c>
+      <c r="L69">
+        <v>6</v>
+      </c>
+      <c r="M69">
+        <v>6</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K70">
         <v>0.04181184668989547</v>
       </c>
-      <c r="L61">
+      <c r="L70">
         <v>12</v>
       </c>
-      <c r="M61">
+      <c r="M70">
         <v>13</v>
       </c>
-      <c r="N61">
+      <c r="N70">
         <v>0.92</v>
       </c>
-      <c r="O61">
+      <c r="O70">
         <v>0.07999999999999996</v>
       </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
         <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K71">
+        <v>0.02127659574468085</v>
+      </c>
+      <c r="L71">
+        <v>6</v>
+      </c>
+      <c r="M71">
+        <v>23</v>
+      </c>
+      <c r="N71">
+        <v>0.26</v>
+      </c>
+      <c r="O71">
+        <v>0.74</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
